--- a/Urdu Arabic Unicode comparison.xlsx
+++ b/Urdu Arabic Unicode comparison.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$41</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>یونیکوڈ ویلیو</t>
   </si>
@@ -207,14 +210,17 @@
     <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Urdu/ِArabic Unicode Comparison Table </t>
+    <t>Rows with red backgroud have different unicode values of arabic and urdu characters</t>
+  </si>
+  <si>
+    <t>Rows with green backgroud have same unicode values of arabic and urdu characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +282,18 @@
       <charset val="178"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6161"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -369,9 +361,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -385,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,80 +402,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,689 +775,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" ht="70.5" thickBot="1">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="B3" s="22">
+        <v>627</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>627</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="C3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C4" s="11">
-        <v>627</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="22">
+        <v>628</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>628</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="E4" s="13">
-        <v>627</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C5" s="11">
-        <v>628</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="E5" s="13">
-        <v>628</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>679</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="B7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7">
-        <v>679</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="B8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C8" s="11" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
+        <v>686</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="B10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C9" s="11" t="s">
+      <c r="B11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C10" s="5"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7">
-        <v>686</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6">
+        <v>688</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C11" s="11" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6">
+        <v>630</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="B15" s="22">
+        <v>631</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11">
+        <v>631</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="41.25" thickBot="1">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C12" s="11" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6">
+        <v>691</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="B17" s="22">
+        <v>632</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11">
+        <v>632</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A18" s="21">
         <v>16</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C13" s="11" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6">
+        <v>698</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A19" s="21">
         <v>17</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="B19" s="22">
+        <v>633</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="11">
+        <v>633</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A20" s="21">
         <v>18</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7">
-        <v>688</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="B20" s="22">
+        <v>634</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11">
+        <v>634</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A21" s="21">
         <v>19</v>
       </c>
-      <c r="G14" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7">
-        <v>630</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="B21" s="22">
+        <v>635</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="11">
+        <v>635</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A22" s="21">
         <v>20</v>
       </c>
-      <c r="G15" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="41.25" thickBot="1">
-      <c r="C16" s="11">
-        <v>631</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="B22" s="22">
+        <v>636</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="11">
+        <v>636</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A23" s="21">
         <v>21</v>
       </c>
-      <c r="E16" s="13">
-        <v>631</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7">
-        <v>691</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="B23" s="22">
+        <v>637</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11">
+        <v>637</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A24" s="21">
         <v>22</v>
       </c>
-      <c r="G17" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C18" s="11">
-        <v>632</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B24" s="22">
+        <v>638</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11">
+        <v>638</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A25" s="21">
         <v>23</v>
       </c>
-      <c r="E18" s="13">
-        <v>632</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7">
-        <v>698</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="B25" s="22">
+        <v>639</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="11">
+        <v>639</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A26" s="21">
         <v>24</v>
       </c>
-      <c r="G19" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C20" s="11">
-        <v>633</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A27" s="21">
         <v>25</v>
       </c>
-      <c r="E20" s="13">
-        <v>633</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C21" s="11">
-        <v>634</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="B27" s="22">
+        <v>641</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="11">
+        <v>641</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A28" s="21">
         <v>26</v>
       </c>
-      <c r="E21" s="13">
-        <v>634</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C22" s="11">
-        <v>635</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="B28" s="18">
+        <v>643</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A29" s="21">
         <v>27</v>
       </c>
-      <c r="E22" s="13">
-        <v>635</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C23" s="11">
-        <v>636</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="B29" s="23">
+        <v>642</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6">
+        <v>642</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="E23" s="13">
-        <v>636</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C24" s="11">
-        <v>637</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="B30" s="23">
+        <v>644</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="6">
+        <v>644</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A31" s="21">
         <v>29</v>
       </c>
-      <c r="E24" s="13">
-        <v>637</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C25" s="11">
-        <v>638</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="B31" s="23">
+        <v>645</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6">
+        <v>645</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="E25" s="13">
-        <v>638</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C26" s="11">
-        <v>639</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="B32" s="23">
+        <v>646</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6">
+        <v>646</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A33" s="21">
         <v>31</v>
       </c>
-      <c r="E26" s="13">
-        <v>639</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C27" s="11" t="s">
+      <c r="B33" s="23">
+        <v>648</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="6">
+        <v>648</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A34" s="21">
         <v>32</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="B34" s="29">
+        <v>647</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A35" s="21">
         <v>33</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C28" s="11">
-        <v>641</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A36" s="21">
         <v>34</v>
       </c>
-      <c r="E28" s="13">
-        <v>641</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C29" s="15">
-        <v>643</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="B36" s="22">
+        <v>621</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="11">
+        <v>621</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A37" s="21">
         <v>35</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="B37" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A38" s="21">
         <v>36</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A39" s="21">
         <v>37</v>
       </c>
-      <c r="G29" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C30" s="5">
-        <v>642</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="B39" s="22">
+        <v>626</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="11">
+        <v>626</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="3" customFormat="1" ht="41.25" thickBot="1">
+      <c r="A40" s="21">
         <v>38</v>
       </c>
-      <c r="E30" s="7">
-        <v>642</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C31" s="5">
-        <v>644</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="7">
-        <v>644</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C32" s="5">
-        <v>645</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="7">
-        <v>645</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C33" s="5">
-        <v>646</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="7">
-        <v>646</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C34" s="5">
-        <v>648</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="7">
-        <v>648</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C35" s="19">
-        <v>647</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C36" s="23"/>
-      <c r="D36" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C37" s="11">
-        <v>621</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="13">
-        <v>621</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C38" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C40" s="11">
-        <v>626</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="13">
-        <v>626</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="41.25" thickBot="1">
-      <c r="C41" s="24">
+      <c r="B40" s="18">
         <v>629</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="C40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="D40" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="E40" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="3">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.24" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
